--- a/predictions/Прогнозы_ETS_CM12.xlsx
+++ b/predictions/Прогнозы_ETS_CM12.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17242651.42852092</v>
+        <v>19212897.83795839</v>
       </c>
       <c r="C2" t="n">
-        <v>20822123.33245712</v>
+        <v>20490615.09046348</v>
       </c>
       <c r="D2" t="n">
-        <v>22099848.66393412</v>
+        <v>19405233.3401069</v>
       </c>
       <c r="E2" t="n">
-        <v>21014464.98549217</v>
+        <v>18320336.61713985</v>
       </c>
       <c r="F2" t="n">
-        <v>19929531.29095436</v>
+        <v>19042802.72702442</v>
       </c>
       <c r="G2" t="n">
-        <v>20651965.84317276</v>
+        <v>19126707.34683484</v>
       </c>
       <c r="H2" t="n">
-        <v>20735878.87390193</v>
+        <v>20742812.53196036</v>
       </c>
       <c r="I2" t="n">
-        <v>22352009.78586669</v>
+        <v>20223954.74661469</v>
       </c>
       <c r="J2" t="n">
-        <v>21833172.14212</v>
+        <v>20988011.00153203</v>
       </c>
       <c r="K2" t="n">
-        <v>22597242.44495203</v>
+        <v>21253501.08519586</v>
       </c>
       <c r="L2" t="n">
-        <v>22862755.07812063</v>
+        <v>21888685.86027202</v>
       </c>
       <c r="M2" t="n">
-        <v>23497960.73516475</v>
+        <v>17533977.33169848</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14943616.57321599</v>
+        <v>13065982.78999824</v>
       </c>
       <c r="C3" t="n">
-        <v>15653098.31727594</v>
+        <v>15123355.81732566</v>
       </c>
       <c r="D3" t="n">
-        <v>18619914.46390522</v>
+        <v>12962495.24511599</v>
       </c>
       <c r="E3" t="n">
-        <v>17346806.56994112</v>
+        <v>13660943.89366843</v>
       </c>
       <c r="F3" t="n">
-        <v>18911346.17155183</v>
+        <v>12610688.51308162</v>
       </c>
       <c r="G3" t="n">
-        <v>18705493.80963612</v>
+        <v>11915203.77902494</v>
       </c>
       <c r="H3" t="n">
-        <v>18832763.02818732</v>
+        <v>12384502.41635427</v>
       </c>
       <c r="I3" t="n">
-        <v>20103139.68711081</v>
+        <v>13235672.92785793</v>
       </c>
       <c r="J3" t="n">
-        <v>21733689.39936587</v>
+        <v>12975418.01614935</v>
       </c>
       <c r="K3" t="n">
-        <v>22231141.65592119</v>
+        <v>13845889.99930685</v>
       </c>
       <c r="L3" t="n">
-        <v>23837645.46886327</v>
+        <v>13529852.90758417</v>
       </c>
       <c r="M3" t="n">
-        <v>24235970.66563031</v>
+        <v>11253347.149446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26255464.372005</v>
+        <v>61777174.30775476</v>
       </c>
       <c r="C4" t="n">
-        <v>29064414.79376648</v>
+        <v>69904436.83268829</v>
       </c>
       <c r="D4" t="n">
-        <v>31483969.09879224</v>
+        <v>78681971.7354347</v>
       </c>
       <c r="E4" t="n">
-        <v>34653571.85641471</v>
+        <v>86998357.76061454</v>
       </c>
       <c r="F4" t="n">
-        <v>37333848.78343718</v>
+        <v>95892757.91918546</v>
       </c>
       <c r="G4" t="n">
-        <v>40476787.41153296</v>
+        <v>104522805.3542918</v>
       </c>
       <c r="H4" t="n">
-        <v>43552313.1728173</v>
+        <v>113962766.05665</v>
       </c>
       <c r="I4" t="n">
-        <v>47027615.50264838</v>
+        <v>122847565.7054521</v>
       </c>
       <c r="J4" t="n">
-        <v>49329301.19880763</v>
+        <v>132790234.1953598</v>
       </c>
       <c r="K4" t="n">
-        <v>54550542.15797356</v>
+        <v>138837283.2545116</v>
       </c>
       <c r="L4" t="n">
-        <v>55807540.15094772</v>
+        <v>149233697.1868926</v>
       </c>
       <c r="M4" t="n">
-        <v>59912084.38185179</v>
+        <v>158795787.7767786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21033363.61524248</v>
+        <v>31093789.28124736</v>
       </c>
       <c r="C5" t="n">
-        <v>23688234.89076619</v>
+        <v>31779542.81385271</v>
       </c>
       <c r="D5" t="n">
-        <v>26289984.72300106</v>
+        <v>32700490.10628084</v>
       </c>
       <c r="E5" t="n">
-        <v>28858576.05391325</v>
+        <v>34380022.62014294</v>
       </c>
       <c r="F5" t="n">
-        <v>31521964.51994421</v>
+        <v>35702896.35544153</v>
       </c>
       <c r="G5" t="n">
-        <v>34367316.92573514</v>
+        <v>36162446.2249454</v>
       </c>
       <c r="H5" t="n">
-        <v>37082315.62296597</v>
+        <v>37562457.87372249</v>
       </c>
       <c r="I5" t="n">
-        <v>40274110.34189486</v>
+        <v>38688128.58098397</v>
       </c>
       <c r="J5" t="n">
-        <v>44150869.35403153</v>
+        <v>39936369.06224301</v>
       </c>
       <c r="K5" t="n">
-        <v>46232560.49323401</v>
+        <v>43105801.2709378</v>
       </c>
       <c r="L5" t="n">
-        <v>48449297.25737894</v>
+        <v>57674638.86751841</v>
       </c>
       <c r="M5" t="n">
-        <v>52234150.26248858</v>
+        <v>31824600.15403697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8666023.576723194</v>
+        <v>2469350.259103239</v>
       </c>
       <c r="C6" t="n">
-        <v>13648043.48667626</v>
+        <v>2883001.49777625</v>
       </c>
       <c r="D6" t="n">
-        <v>11887779.05087181</v>
+        <v>1341181.290631827</v>
       </c>
       <c r="E6" t="n">
-        <v>12206463.34990467</v>
+        <v>4613566.4244859</v>
       </c>
       <c r="F6" t="n">
-        <v>13944303.3893427</v>
+        <v>521621.763757416</v>
       </c>
       <c r="G6" t="n">
-        <v>13792829.60879944</v>
+        <v>1616201.493481806</v>
       </c>
       <c r="H6" t="n">
-        <v>13985421.33309161</v>
+        <v>830116.4767112861</v>
       </c>
       <c r="I6" t="n">
-        <v>14416767.45596037</v>
+        <v>1752935.806625982</v>
       </c>
       <c r="J6" t="n">
-        <v>14521208.57297431</v>
+        <v>-91699.74049045169</v>
       </c>
       <c r="K6" t="n">
-        <v>15153136.97366262</v>
+        <v>2041466.057069725</v>
       </c>
       <c r="L6" t="n">
-        <v>16038804.20520656</v>
+        <v>830744.2228543083</v>
       </c>
       <c r="M6" t="n">
-        <v>23214043.2066245</v>
+        <v>372883.2379595011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1408505.988386086</v>
+        <v>15068802.41224578</v>
       </c>
       <c r="C7" t="n">
-        <v>2821755.917790822</v>
+        <v>16337830.09413509</v>
       </c>
       <c r="D7" t="n">
-        <v>2939704.39688287</v>
+        <v>15483508.37782292</v>
       </c>
       <c r="E7" t="n">
-        <v>3290543.966078039</v>
+        <v>16249945.76130637</v>
       </c>
       <c r="F7" t="n">
-        <v>2230414.109836929</v>
+        <v>15238565.54436478</v>
       </c>
       <c r="G7" t="n">
-        <v>3442641.347422942</v>
+        <v>15562329.13361126</v>
       </c>
       <c r="H7" t="n">
-        <v>2844861.874674675</v>
+        <v>15544599.70354977</v>
       </c>
       <c r="I7" t="n">
-        <v>2724589.73516382</v>
+        <v>15350982.1431238</v>
       </c>
       <c r="J7" t="n">
-        <v>3215380.686323229</v>
+        <v>16148462.62180204</v>
       </c>
       <c r="K7" t="n">
-        <v>2961093.228971011</v>
+        <v>15114975.39554309</v>
       </c>
       <c r="L7" t="n">
-        <v>3138004.076000123</v>
+        <v>17306948.46458495</v>
       </c>
       <c r="M7" t="n">
-        <v>4546177.507080959</v>
+        <v>16588522.38735709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1015876.670307548</v>
+        <v>20352110.04155377</v>
       </c>
       <c r="C8" t="n">
-        <v>1430001.552955346</v>
+        <v>22198354.0110942</v>
       </c>
       <c r="D8" t="n">
-        <v>1362529.649611596</v>
+        <v>21729728.19921732</v>
       </c>
       <c r="E8" t="n">
-        <v>1457533.722928155</v>
+        <v>20215985.98664956</v>
       </c>
       <c r="F8" t="n">
-        <v>1410289.505472669</v>
+        <v>20751562.10925463</v>
       </c>
       <c r="G8" t="n">
-        <v>1625855.994027994</v>
+        <v>20287623.136806</v>
       </c>
       <c r="H8" t="n">
-        <v>1830346.698273161</v>
+        <v>18681164.27753207</v>
       </c>
       <c r="I8" t="n">
-        <v>1746960.121465923</v>
+        <v>19803625.31235832</v>
       </c>
       <c r="J8" t="n">
-        <v>1669331.761627668</v>
+        <v>20416313.76359507</v>
       </c>
       <c r="K8" t="n">
-        <v>2152703.377597951</v>
+        <v>22319328.03613036</v>
       </c>
       <c r="L8" t="n">
-        <v>2431036.433075153</v>
+        <v>25936921.41738065</v>
       </c>
       <c r="M8" t="n">
-        <v>2019716.485691667</v>
+        <v>15799303.48302191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12028993.43135127</v>
+        <v>27290251.18365442</v>
       </c>
       <c r="C9" t="n">
-        <v>15228934.99106384</v>
+        <v>29955340.40917782</v>
       </c>
       <c r="D9" t="n">
-        <v>18428820.1334984</v>
+        <v>31208850.7007571</v>
       </c>
       <c r="E9" t="n">
-        <v>21390282.37619848</v>
+        <v>32085747.09995035</v>
       </c>
       <c r="F9" t="n">
-        <v>24538670.25034703</v>
+        <v>34712167.15523552</v>
       </c>
       <c r="G9" t="n">
-        <v>26820852.9513942</v>
+        <v>32653834.7378392</v>
       </c>
       <c r="H9" t="n">
-        <v>29599309.09375721</v>
+        <v>34174626.98398018</v>
       </c>
       <c r="I9" t="n">
-        <v>32056541.02070902</v>
+        <v>30860733.36617831</v>
       </c>
       <c r="J9" t="n">
-        <v>34391923.5820381</v>
+        <v>34549834.4352695</v>
       </c>
       <c r="K9" t="n">
-        <v>37649149.57754542</v>
+        <v>34801922.27461652</v>
       </c>
       <c r="L9" t="n">
-        <v>40082130.50715992</v>
+        <v>41064161.5588761</v>
       </c>
       <c r="M9" t="n">
-        <v>43326405.17806101</v>
+        <v>31046744.13962011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12806098.82584791</v>
+        <v>15397384.63879393</v>
       </c>
       <c r="C10" t="n">
-        <v>14602686.24275882</v>
+        <v>16535359.04985909</v>
       </c>
       <c r="D10" t="n">
-        <v>16037132.17686761</v>
+        <v>17850293.70352307</v>
       </c>
       <c r="E10" t="n">
-        <v>15376698.94704302</v>
+        <v>18751775.89608598</v>
       </c>
       <c r="F10" t="n">
-        <v>15308515.19509274</v>
+        <v>18916901.96942763</v>
       </c>
       <c r="G10" t="n">
-        <v>15032862.06540945</v>
+        <v>21412241.93982225</v>
       </c>
       <c r="H10" t="n">
-        <v>14856502.47186043</v>
+        <v>20684948.64773345</v>
       </c>
       <c r="I10" t="n">
-        <v>15628707.02728015</v>
+        <v>19465303.99837825</v>
       </c>
       <c r="J10" t="n">
-        <v>15873132.95096288</v>
+        <v>19750234.66021762</v>
       </c>
       <c r="K10" t="n">
-        <v>14845478.57365127</v>
+        <v>20385049.09795688</v>
       </c>
       <c r="L10" t="n">
-        <v>16050413.61663975</v>
+        <v>20957277.00379656</v>
       </c>
       <c r="M10" t="n">
-        <v>20861660.30492645</v>
+        <v>18990954.54673627</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14022.79102344636</v>
+        <v>19795426.77184151</v>
       </c>
       <c r="C11" t="n">
-        <v>1207818.510749752</v>
+        <v>20174562.49853127</v>
       </c>
       <c r="D11" t="n">
-        <v>1125897.357354053</v>
+        <v>20985263.66331175</v>
       </c>
       <c r="E11" t="n">
-        <v>320973.4864841652</v>
+        <v>21408396.68898383</v>
       </c>
       <c r="F11" t="n">
-        <v>3785535.744385376</v>
+        <v>23133710.2553643</v>
       </c>
       <c r="G11" t="n">
-        <v>58364.60476906551</v>
+        <v>23621510.17354012</v>
       </c>
       <c r="H11" t="n">
-        <v>785897.2404532954</v>
+        <v>23876681.8613121</v>
       </c>
       <c r="I11" t="n">
-        <v>490862.5781431621</v>
+        <v>24716638.20800455</v>
       </c>
       <c r="J11" t="n">
-        <v>1289854.545115836</v>
+        <v>26922556.95228777</v>
       </c>
       <c r="K11" t="n">
-        <v>-299412.0831822725</v>
+        <v>27430070.05631243</v>
       </c>
       <c r="L11" t="n">
-        <v>1681866.394548283</v>
+        <v>28005280.43295458</v>
       </c>
       <c r="M11" t="n">
-        <v>291688.759040433</v>
+        <v>26802902.4160056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>379772.3605530559</v>
+        <v>43862153.23173886</v>
       </c>
       <c r="C12" t="n">
-        <v>1253397.470311866</v>
+        <v>44755092.81116553</v>
       </c>
       <c r="D12" t="n">
-        <v>1748990.559885018</v>
+        <v>43462717.54093991</v>
       </c>
       <c r="E12" t="n">
-        <v>1012105.906896055</v>
+        <v>40056734.58000668</v>
       </c>
       <c r="F12" t="n">
-        <v>819906.4351523805</v>
+        <v>45158689.5478229</v>
       </c>
       <c r="G12" t="n">
-        <v>455114.8093345156</v>
+        <v>49185394.06339099</v>
       </c>
       <c r="H12" t="n">
-        <v>822155.4758781802</v>
+        <v>44196638.1003819</v>
       </c>
       <c r="I12" t="n">
-        <v>331094.1065578122</v>
+        <v>49782319.81053436</v>
       </c>
       <c r="J12" t="n">
-        <v>454934.1703401894</v>
+        <v>52509804.66298581</v>
       </c>
       <c r="K12" t="n">
-        <v>199581.2655481388</v>
+        <v>54575375.43766198</v>
       </c>
       <c r="L12" t="n">
-        <v>351473.3722967128</v>
+        <v>43445507.75760209</v>
       </c>
       <c r="M12" t="n">
-        <v>530908.313609215</v>
+        <v>42598308.04051529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3107057.930846188</v>
+        <v>36445352.72465356</v>
       </c>
       <c r="C13" t="n">
-        <v>3442839.290414647</v>
+        <v>37813897.84609386</v>
       </c>
       <c r="D13" t="n">
-        <v>3991553.936897962</v>
+        <v>37134721.27305286</v>
       </c>
       <c r="E13" t="n">
-        <v>4195255.389545158</v>
+        <v>32664897.90598151</v>
       </c>
       <c r="F13" t="n">
-        <v>4797552.726452596</v>
+        <v>37503902.56250688</v>
       </c>
       <c r="G13" t="n">
-        <v>4854387.507263818</v>
+        <v>41718932.94954644</v>
       </c>
       <c r="H13" t="n">
-        <v>5422964.491459926</v>
+        <v>43961348.62525428</v>
       </c>
       <c r="I13" t="n">
-        <v>5620852.562106394</v>
+        <v>45333262.17666357</v>
       </c>
       <c r="J13" t="n">
-        <v>6023169.034267541</v>
+        <v>45752656.94961572</v>
       </c>
       <c r="K13" t="n">
-        <v>6567211.626039938</v>
+        <v>41303892.25403833</v>
       </c>
       <c r="L13" t="n">
-        <v>6735463.189554477</v>
+        <v>37072609.53530461</v>
       </c>
       <c r="M13" t="n">
-        <v>7101235.167774924</v>
+        <v>34352848.28045558</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-56111.77071070659</v>
+        <v>1010240.224746865</v>
       </c>
       <c r="C14" t="n">
-        <v>930623.9790048518</v>
+        <v>1046219.809540004</v>
       </c>
       <c r="D14" t="n">
-        <v>1781940.583159955</v>
+        <v>1039238.054148488</v>
       </c>
       <c r="E14" t="n">
-        <v>1076333.493295855</v>
+        <v>1016505.204395056</v>
       </c>
       <c r="F14" t="n">
-        <v>402650.1195444835</v>
+        <v>1175874.027448112</v>
       </c>
       <c r="G14" t="n">
-        <v>403721.7169375193</v>
+        <v>1461180.56365656</v>
       </c>
       <c r="H14" t="n">
-        <v>246692.2512805613</v>
+        <v>1169841.879770159</v>
       </c>
       <c r="I14" t="n">
-        <v>311865.710999309</v>
+        <v>1223365.291969545</v>
       </c>
       <c r="J14" t="n">
-        <v>102525.6652894109</v>
+        <v>1143974.492393801</v>
       </c>
       <c r="K14" t="n">
-        <v>827382.2525851214</v>
+        <v>1229031.722492447</v>
       </c>
       <c r="L14" t="n">
-        <v>-7820.083577495767</v>
+        <v>1401935.520188416</v>
       </c>
       <c r="M14" t="n">
-        <v>176120.6485525218</v>
+        <v>1026601.561678024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1172316.523257684</v>
+        <v>4584398.007615503</v>
       </c>
       <c r="C15" t="n">
-        <v>1137561.534508042</v>
+        <v>5467691.679295639</v>
       </c>
       <c r="D15" t="n">
-        <v>1188788.503700394</v>
+        <v>5869073.964505287</v>
       </c>
       <c r="E15" t="n">
-        <v>1277858.012189488</v>
+        <v>4889992.683154406</v>
       </c>
       <c r="F15" t="n">
-        <v>1263761.183426625</v>
+        <v>5177019.850780933</v>
       </c>
       <c r="G15" t="n">
-        <v>1401093.353752703</v>
+        <v>4577182.656089648</v>
       </c>
       <c r="H15" t="n">
-        <v>1472188.95219347</v>
+        <v>5600304.665079083</v>
       </c>
       <c r="I15" t="n">
-        <v>1500280.710805562</v>
+        <v>5310962.830035914</v>
       </c>
       <c r="J15" t="n">
-        <v>1486914.098686236</v>
+        <v>5494408.161699622</v>
       </c>
       <c r="K15" t="n">
-        <v>1467145.472147876</v>
+        <v>6201450.159029059</v>
       </c>
       <c r="L15" t="n">
-        <v>1466883.377784025</v>
+        <v>6092031.82433441</v>
       </c>
       <c r="M15" t="n">
-        <v>2064685.585704153</v>
+        <v>5616356.636829645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1644335.788301804</v>
+        <v>7338265.741630582</v>
       </c>
       <c r="C16" t="n">
-        <v>1831532.883634766</v>
+        <v>7903676.346628745</v>
       </c>
       <c r="D16" t="n">
-        <v>1846225.373919642</v>
+        <v>9345596.249265799</v>
       </c>
       <c r="E16" t="n">
-        <v>1903679.185012746</v>
+        <v>8642139.940245956</v>
       </c>
       <c r="F16" t="n">
-        <v>2031782.198918793</v>
+        <v>8845583.164528478</v>
       </c>
       <c r="G16" t="n">
-        <v>2025045.509891137</v>
+        <v>9331917.954065399</v>
       </c>
       <c r="H16" t="n">
-        <v>2145650.970842098</v>
+        <v>8240976.947710767</v>
       </c>
       <c r="I16" t="n">
-        <v>2166942.470122372</v>
+        <v>10834850.27913303</v>
       </c>
       <c r="J16" t="n">
-        <v>2166167.456154729</v>
+        <v>10413730.13072927</v>
       </c>
       <c r="K16" t="n">
-        <v>2361445.165517614</v>
+        <v>11503918.43955782</v>
       </c>
       <c r="L16" t="n">
-        <v>2280562.084408732</v>
+        <v>11671250.75742534</v>
       </c>
       <c r="M16" t="n">
-        <v>2585205.568044638</v>
+        <v>10071185.42677646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6354038.776992417</v>
+        <v>6412455.919131445</v>
       </c>
       <c r="C17" t="n">
-        <v>7048383.882298538</v>
+        <v>5942622.698872808</v>
       </c>
       <c r="D17" t="n">
-        <v>7285546.511050839</v>
+        <v>6289497.026689872</v>
       </c>
       <c r="E17" t="n">
-        <v>7176128.122340317</v>
+        <v>6138028.366596975</v>
       </c>
       <c r="F17" t="n">
-        <v>8275232.36960694</v>
+        <v>6462050.257319544</v>
       </c>
       <c r="G17" t="n">
-        <v>7434851.710188616</v>
+        <v>6695503.714855433</v>
       </c>
       <c r="H17" t="n">
-        <v>7514563.687502772</v>
+        <v>7143460.454151085</v>
       </c>
       <c r="I17" t="n">
-        <v>7527277.622577595</v>
+        <v>6905770.442621655</v>
       </c>
       <c r="J17" t="n">
-        <v>7486800.548896316</v>
+        <v>7544352.537553988</v>
       </c>
       <c r="K17" t="n">
-        <v>7160978.566222581</v>
+        <v>7676773.882863043</v>
       </c>
       <c r="L17" t="n">
-        <v>7185793.658046577</v>
+        <v>7916617.301599183</v>
       </c>
       <c r="M17" t="n">
-        <v>8224924.117350214</v>
+        <v>6460504.708606548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-34230.83360332804</v>
+        <v>4098049.881660157</v>
       </c>
       <c r="C18" t="n">
-        <v>405531.6414952565</v>
+        <v>3953130.874623324</v>
       </c>
       <c r="D18" t="n">
-        <v>495188.42129734</v>
+        <v>3755807.660109003</v>
       </c>
       <c r="E18" t="n">
-        <v>236938.3955312549</v>
+        <v>4636773.799803594</v>
       </c>
       <c r="F18" t="n">
-        <v>-257059.7042904024</v>
+        <v>4160295.48510911</v>
       </c>
       <c r="G18" t="n">
-        <v>-62468.11321460149</v>
+        <v>3660348.573606739</v>
       </c>
       <c r="H18" t="n">
-        <v>-597155.2320075571</v>
+        <v>3681041.389687435</v>
       </c>
       <c r="I18" t="n">
-        <v>-781709.6451797981</v>
+        <v>4229799.776099593</v>
       </c>
       <c r="J18" t="n">
-        <v>-578282.0281055556</v>
+        <v>3899396.289981327</v>
       </c>
       <c r="K18" t="n">
-        <v>-896292.7884407134</v>
+        <v>4213351.672749889</v>
       </c>
       <c r="L18" t="n">
-        <v>-717045.4006389306</v>
+        <v>4296004.920295173</v>
       </c>
       <c r="M18" t="n">
-        <v>1097594.931700151</v>
+        <v>3895450.890794826</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-86978.21507378633</v>
+        <v>5301231.321467021</v>
       </c>
       <c r="C19" t="n">
-        <v>-53924.02696272543</v>
+        <v>6791300.638290332</v>
       </c>
       <c r="D19" t="n">
-        <v>85868.93299788701</v>
+        <v>4391327.163032738</v>
       </c>
       <c r="E19" t="n">
-        <v>-97910.82936854538</v>
+        <v>3964831.174186165</v>
       </c>
       <c r="F19" t="n">
-        <v>-24587.82088198873</v>
+        <v>5157133.652673667</v>
       </c>
       <c r="G19" t="n">
-        <v>-142780.5361793779</v>
+        <v>6065383.152681016</v>
       </c>
       <c r="H19" t="n">
-        <v>-78553.48051642421</v>
+        <v>7589387.354355798</v>
       </c>
       <c r="I19" t="n">
-        <v>-139989.1496107141</v>
+        <v>5327058.50525487</v>
       </c>
       <c r="J19" t="n">
-        <v>104432.2009343147</v>
+        <v>7257560.641900831</v>
       </c>
       <c r="K19" t="n">
-        <v>-121993.4095431836</v>
+        <v>6138984.256774104</v>
       </c>
       <c r="L19" t="n">
-        <v>-165694.5071942955</v>
+        <v>6489144.057719606</v>
       </c>
       <c r="M19" t="n">
-        <v>-40810.08389372421</v>
+        <v>4522537.170638274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>638225.6491764954</v>
+        <v>2159117.528235941</v>
       </c>
       <c r="C20" t="n">
-        <v>1903442.386693947</v>
+        <v>2162202.750739633</v>
       </c>
       <c r="D20" t="n">
-        <v>2002706.538839096</v>
+        <v>418746.2081216042</v>
       </c>
       <c r="E20" t="n">
-        <v>2168518.68951908</v>
+        <v>728066.8636826002</v>
       </c>
       <c r="F20" t="n">
-        <v>1876326.048362773</v>
+        <v>1538232.593948167</v>
       </c>
       <c r="G20" t="n">
-        <v>2227424.590899285</v>
+        <v>424472.9083629948</v>
       </c>
       <c r="H20" t="n">
-        <v>1817484.592379726</v>
+        <v>-159010.0271533725</v>
       </c>
       <c r="I20" t="n">
-        <v>2187470.562933221</v>
+        <v>263715.8007896059</v>
       </c>
       <c r="J20" t="n">
-        <v>2429414.979993626</v>
+        <v>924200.9862329813</v>
       </c>
       <c r="K20" t="n">
-        <v>2164128.323388794</v>
+        <v>767150.8309571764</v>
       </c>
       <c r="L20" t="n">
-        <v>2266385.910540088</v>
+        <v>-437386.7022559146</v>
       </c>
       <c r="M20" t="n">
-        <v>2457545.435291651</v>
+        <v>-679030.4834327761</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1196798.680398829</v>
+        <v>2940276.321081477</v>
       </c>
       <c r="C21" t="n">
-        <v>1839972.71756118</v>
+        <v>3293981.550655959</v>
       </c>
       <c r="D21" t="n">
-        <v>1429905.810742397</v>
+        <v>3532940.636815639</v>
       </c>
       <c r="E21" t="n">
-        <v>2007197.376065996</v>
+        <v>3804383.993032842</v>
       </c>
       <c r="F21" t="n">
-        <v>1947148.004369374</v>
+        <v>4012578.931715312</v>
       </c>
       <c r="G21" t="n">
-        <v>1566058.775522636</v>
+        <v>3288938.58150385</v>
       </c>
       <c r="H21" t="n">
-        <v>1782215.66148491</v>
+        <v>3388310.511988785</v>
       </c>
       <c r="I21" t="n">
-        <v>1364005.931868662</v>
+        <v>2901301.765451566</v>
       </c>
       <c r="J21" t="n">
-        <v>1277963.019002718</v>
+        <v>3886052.683110638</v>
       </c>
       <c r="K21" t="n">
-        <v>2075730.473575816</v>
+        <v>4175394.649491735</v>
       </c>
       <c r="L21" t="n">
-        <v>1497751.777733315</v>
+        <v>4789994.291957786</v>
       </c>
       <c r="M21" t="n">
-        <v>1518636.061841095</v>
+        <v>3323061.51087826</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>406514.1619340838</v>
+        <v>11956251.13358849</v>
       </c>
       <c r="C22" t="n">
-        <v>-22160.85561687135</v>
+        <v>11968417.30137929</v>
       </c>
       <c r="D22" t="n">
-        <v>475563.389487134</v>
+        <v>13322856.26662811</v>
       </c>
       <c r="E22" t="n">
-        <v>270714.1638014658</v>
+        <v>11595396.10200179</v>
       </c>
       <c r="F22" t="n">
-        <v>-74942.36689418893</v>
+        <v>13670634.57681719</v>
       </c>
       <c r="G22" t="n">
-        <v>-126571.6198410417</v>
+        <v>12541332.86882795</v>
       </c>
       <c r="H22" t="n">
-        <v>-417677.9851507539</v>
+        <v>12223588.34771335</v>
       </c>
       <c r="I22" t="n">
-        <v>-555039.7916477036</v>
+        <v>14957371.4853347</v>
       </c>
       <c r="J22" t="n">
-        <v>-544448.8903714175</v>
+        <v>15060656.90460739</v>
       </c>
       <c r="K22" t="n">
-        <v>-451925.1273955254</v>
+        <v>15522113.33542153</v>
       </c>
       <c r="L22" t="n">
-        <v>157260.7587932018</v>
+        <v>14985443.5705086</v>
       </c>
       <c r="M22" t="n">
-        <v>638421.2341019777</v>
+        <v>12067105.00860422</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-77609.20899668067</v>
+        <v>5909906.49146507</v>
       </c>
       <c r="C23" t="n">
-        <v>43151.01657485225</v>
+        <v>5525583.468111485</v>
       </c>
       <c r="D23" t="n">
-        <v>3879.960746405064</v>
+        <v>5939691.590787251</v>
       </c>
       <c r="E23" t="n">
-        <v>-62568.9283487013</v>
+        <v>5078305.843875119</v>
       </c>
       <c r="F23" t="n">
-        <v>-28904.76266975199</v>
+        <v>6588027.171794271</v>
       </c>
       <c r="G23" t="n">
-        <v>-77613.94109922985</v>
+        <v>6873052.448311928</v>
       </c>
       <c r="H23" t="n">
-        <v>-77613.77602571109</v>
+        <v>12426979.55337248</v>
       </c>
       <c r="I23" t="n">
-        <v>-77614.01482537707</v>
+        <v>9686832.279278176</v>
       </c>
       <c r="J23" t="n">
-        <v>-77614.66692329664</v>
+        <v>6694569.558511482</v>
       </c>
       <c r="K23" t="n">
-        <v>-76760.77644482658</v>
+        <v>7309741.891813293</v>
       </c>
       <c r="L23" t="n">
-        <v>-71966.36196271078</v>
+        <v>6524284.786620384</v>
       </c>
       <c r="M23" t="n">
-        <v>148407.3018761108</v>
+        <v>3577158.653130573</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9579197.43935902</v>
+        <v>10732649.61453657</v>
       </c>
       <c r="C24" t="n">
-        <v>12520210.37266476</v>
+        <v>11416991.23244513</v>
       </c>
       <c r="D24" t="n">
-        <v>14068475.24830598</v>
+        <v>12120956.3809218</v>
       </c>
       <c r="E24" t="n">
-        <v>13422265.10177437</v>
+        <v>9639047.813182438</v>
       </c>
       <c r="F24" t="n">
-        <v>12988018.39685</v>
+        <v>10922962.08466729</v>
       </c>
       <c r="G24" t="n">
-        <v>13315188.70065285</v>
+        <v>11316351.40504318</v>
       </c>
       <c r="H24" t="n">
-        <v>13806408.90494268</v>
+        <v>9994568.760895066</v>
       </c>
       <c r="I24" t="n">
-        <v>12479551.90435266</v>
+        <v>11848598.69949014</v>
       </c>
       <c r="J24" t="n">
-        <v>12897041.5856943</v>
+        <v>11378094.45841541</v>
       </c>
       <c r="K24" t="n">
-        <v>12361992.33819244</v>
+        <v>12989189.53854301</v>
       </c>
       <c r="L24" t="n">
-        <v>13679426.09765227</v>
+        <v>14887301.79599269</v>
       </c>
       <c r="M24" t="n">
-        <v>15041587.52219303</v>
+        <v>10101531.7061015</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1817119.602745174</v>
+        <v>4048952.275291657</v>
       </c>
       <c r="C25" t="n">
-        <v>2970183.66040672</v>
+        <v>5460807.439292362</v>
       </c>
       <c r="D25" t="n">
-        <v>2893611.337278787</v>
+        <v>4707265.559009588</v>
       </c>
       <c r="E25" t="n">
-        <v>2966196.497968428</v>
+        <v>3266484.708746362</v>
       </c>
       <c r="F25" t="n">
-        <v>2838211.830818594</v>
+        <v>3783549.515942333</v>
       </c>
       <c r="G25" t="n">
-        <v>2957614.715759836</v>
+        <v>4715404.626724315</v>
       </c>
       <c r="H25" t="n">
-        <v>2814024.839822931</v>
+        <v>4896669.627724638</v>
       </c>
       <c r="I25" t="n">
-        <v>2950412.271417045</v>
+        <v>5618405.642221868</v>
       </c>
       <c r="J25" t="n">
-        <v>2569310.467415044</v>
+        <v>5490154.799255829</v>
       </c>
       <c r="K25" t="n">
-        <v>3760026.843791245</v>
+        <v>5241130.446285455</v>
       </c>
       <c r="L25" t="n">
-        <v>3396830.119581796</v>
+        <v>5665607.21650451</v>
       </c>
       <c r="M25" t="n">
-        <v>3232831.465641544</v>
+        <v>3605124.586070693</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11927605.28127871</v>
+        <v>10587099.58542966</v>
       </c>
       <c r="C26" t="n">
-        <v>12231200.22737234</v>
+        <v>10597428.99736382</v>
       </c>
       <c r="D26" t="n">
-        <v>13926461.89601995</v>
+        <v>9481515.196335519</v>
       </c>
       <c r="E26" t="n">
-        <v>15783351.70119823</v>
+        <v>10519694.44022917</v>
       </c>
       <c r="F26" t="n">
-        <v>15872456.25964411</v>
+        <v>9757459.382859733</v>
       </c>
       <c r="G26" t="n">
-        <v>17139935.76345235</v>
+        <v>9311800.141695194</v>
       </c>
       <c r="H26" t="n">
-        <v>15845757.23252898</v>
+        <v>11166200.20058357</v>
       </c>
       <c r="I26" t="n">
-        <v>16080058.3880787</v>
+        <v>11233030.6236988</v>
       </c>
       <c r="J26" t="n">
-        <v>14274164.02732396</v>
+        <v>11424943.76637159</v>
       </c>
       <c r="K26" t="n">
-        <v>14696248.76692947</v>
+        <v>11223704.64532441</v>
       </c>
       <c r="L26" t="n">
-        <v>15992088.56206227</v>
+        <v>13097586.28963208</v>
       </c>
       <c r="M26" t="n">
-        <v>16122346.5557941</v>
+        <v>9478314.340220962</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15963982.98506946</v>
+        <v>3597359.529308928</v>
       </c>
       <c r="C27" t="n">
-        <v>17331221.4020973</v>
+        <v>3962287.677046407</v>
       </c>
       <c r="D27" t="n">
-        <v>18128728.81199682</v>
+        <v>3359636.575669388</v>
       </c>
       <c r="E27" t="n">
-        <v>17698070.95196133</v>
+        <v>2957677.22652519</v>
       </c>
       <c r="F27" t="n">
-        <v>17602143.80925737</v>
+        <v>2840130.039388704</v>
       </c>
       <c r="G27" t="n">
-        <v>18460381.44686473</v>
+        <v>4146693.520221549</v>
       </c>
       <c r="H27" t="n">
-        <v>18657287.92964024</v>
+        <v>3992408.253920787</v>
       </c>
       <c r="I27" t="n">
-        <v>19972972.05907537</v>
+        <v>3421397.282792853</v>
       </c>
       <c r="J27" t="n">
-        <v>18749254.20324691</v>
+        <v>3480201.207491026</v>
       </c>
       <c r="K27" t="n">
-        <v>22010876.64173068</v>
+        <v>3563516.724374917</v>
       </c>
       <c r="L27" t="n">
-        <v>21127859.70471508</v>
+        <v>4320086.839118632</v>
       </c>
       <c r="M27" t="n">
-        <v>27256237.22912871</v>
+        <v>2425497.245243069</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19630433.43690066</v>
+        <v>11967031.06569483</v>
       </c>
       <c r="C28" t="n">
-        <v>20253415.77234837</v>
+        <v>11237283.74952638</v>
       </c>
       <c r="D28" t="n">
-        <v>21808760.21998491</v>
+        <v>12122402.25231684</v>
       </c>
       <c r="E28" t="n">
-        <v>23527090.92936184</v>
+        <v>8987906.843356647</v>
       </c>
       <c r="F28" t="n">
-        <v>24817983.74069522</v>
+        <v>11599047.35465349</v>
       </c>
       <c r="G28" t="n">
-        <v>25358568.06483451</v>
+        <v>14133229.69381054</v>
       </c>
       <c r="H28" t="n">
-        <v>28215374.71192131</v>
+        <v>12455531.09797823</v>
       </c>
       <c r="I28" t="n">
-        <v>27835548.0901827</v>
+        <v>10643032.96618698</v>
       </c>
       <c r="J28" t="n">
-        <v>26949431.91665843</v>
+        <v>10271342.82643368</v>
       </c>
       <c r="K28" t="n">
-        <v>27553924.37525714</v>
+        <v>11601058.15353954</v>
       </c>
       <c r="L28" t="n">
-        <v>28494310.93302479</v>
+        <v>14329404.34683708</v>
       </c>
       <c r="M28" t="n">
-        <v>29358294.75302132</v>
+        <v>9903638.23411477</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22530746.19236481</v>
+        <v>1915272.691531989</v>
       </c>
       <c r="C29" t="n">
-        <v>23806487.46872246</v>
+        <v>2118513.601701857</v>
       </c>
       <c r="D29" t="n">
-        <v>24405299.78856973</v>
+        <v>2235367.110985292</v>
       </c>
       <c r="E29" t="n">
-        <v>25428438.794002</v>
+        <v>2255423.864384497</v>
       </c>
       <c r="F29" t="n">
-        <v>26058151.26677719</v>
+        <v>2392842.398459241</v>
       </c>
       <c r="G29" t="n">
-        <v>27981057.84358272</v>
+        <v>2427655.078709726</v>
       </c>
       <c r="H29" t="n">
-        <v>28664806.34492522</v>
+        <v>2229664.978040175</v>
       </c>
       <c r="I29" t="n">
-        <v>29122304.3169417</v>
+        <v>2304979.848785103</v>
       </c>
       <c r="J29" t="n">
-        <v>30148565.89927538</v>
+        <v>2341120.370668476</v>
       </c>
       <c r="K29" t="n">
-        <v>32535135.38392369</v>
+        <v>2479262.299782813</v>
       </c>
       <c r="L29" t="n">
-        <v>33196322.24505678</v>
+        <v>2413987.643962698</v>
       </c>
       <c r="M29" t="n">
-        <v>33818980.85186444</v>
+        <v>2336784.484194694</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41779099.60178201</v>
+        <v>428506.7370787027</v>
       </c>
       <c r="C30" t="n">
-        <v>45120279.38730734</v>
+        <v>419123.8888122283</v>
       </c>
       <c r="D30" t="n">
-        <v>46013201.33705527</v>
+        <v>523701.3118980664</v>
       </c>
       <c r="E30" t="n">
-        <v>44720813.66807259</v>
+        <v>430398.8790418732</v>
       </c>
       <c r="F30" t="n">
-        <v>41314822.36211096</v>
+        <v>391824.1162837372</v>
       </c>
       <c r="G30" t="n">
-        <v>46416774.62740514</v>
+        <v>511645.5982480886</v>
       </c>
       <c r="H30" t="n">
-        <v>50443482.60230503</v>
+        <v>475774.5618952248</v>
       </c>
       <c r="I30" t="n">
-        <v>45454735.09700684</v>
+        <v>552528.879468236</v>
       </c>
       <c r="J30" t="n">
-        <v>51040429.03827496</v>
+        <v>442641.8802630003</v>
       </c>
       <c r="K30" t="n">
-        <v>53767929.73769778</v>
+        <v>477149.3178950692</v>
       </c>
       <c r="L30" t="n">
-        <v>55833520.53304781</v>
+        <v>743086.5366372275</v>
       </c>
       <c r="M30" t="n">
-        <v>44703682.58868603</v>
+        <v>555825.820757758</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33529734.53563956</v>
+        <v>948418.9884379159</v>
       </c>
       <c r="C31" t="n">
-        <v>37315847.50852612</v>
+        <v>1079649.570984695</v>
       </c>
       <c r="D31" t="n">
-        <v>38684394.05503075</v>
+        <v>954656.564121593</v>
       </c>
       <c r="E31" t="n">
-        <v>38005218.93591107</v>
+        <v>845560.9870354169</v>
       </c>
       <c r="F31" t="n">
-        <v>33535397.04790961</v>
+        <v>871722.8344287171</v>
       </c>
       <c r="G31" t="n">
-        <v>38374403.21292717</v>
+        <v>803379.0963158442</v>
       </c>
       <c r="H31" t="n">
-        <v>42589435.13191133</v>
+        <v>816247.2876972058</v>
       </c>
       <c r="I31" t="n">
-        <v>44831852.36189695</v>
+        <v>960967.8981237673</v>
       </c>
       <c r="J31" t="n">
-        <v>46203767.49480955</v>
+        <v>1089479.680954631</v>
       </c>
       <c r="K31" t="n">
-        <v>46623163.87941468</v>
+        <v>1113579.385765087</v>
       </c>
       <c r="L31" t="n">
-        <v>42174400.81116046</v>
+        <v>1300853.019284294</v>
       </c>
       <c r="M31" t="n">
-        <v>37943119.75065443</v>
+        <v>1398421.576496552</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1562211.653453334</v>
+        <v>1653818.669548482</v>
       </c>
       <c r="C32" t="n">
-        <v>1733483.310317174</v>
+        <v>1864673.638592045</v>
       </c>
       <c r="D32" t="n">
-        <v>1878844.183764835</v>
+        <v>1977191.736245649</v>
       </c>
       <c r="E32" t="n">
-        <v>1978392.914573486</v>
+        <v>1868363.689850941</v>
       </c>
       <c r="F32" t="n">
-        <v>2059336.477805565</v>
+        <v>1955128.029913127</v>
       </c>
       <c r="G32" t="n">
-        <v>2319530.44168553</v>
+        <v>2006603.109217959</v>
       </c>
       <c r="H32" t="n">
-        <v>2702820.679235284</v>
+        <v>2014424.217284557</v>
       </c>
       <c r="I32" t="n">
-        <v>2506614.530623561</v>
+        <v>2155458.380731223</v>
       </c>
       <c r="J32" t="n">
-        <v>2652416.61683013</v>
+        <v>2199142.001632511</v>
       </c>
       <c r="K32" t="n">
-        <v>2662458.276187562</v>
+        <v>2032524.750649294</v>
       </c>
       <c r="L32" t="n">
-        <v>2834101.434257395</v>
+        <v>2269507.36840809</v>
       </c>
       <c r="M32" t="n">
-        <v>3090752.877467914</v>
+        <v>1903178.35392576</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4479451.974967362</v>
+        <v>2707500.87505248</v>
       </c>
       <c r="C33" t="n">
-        <v>4522816.829320001</v>
+        <v>2900585.961798432</v>
       </c>
       <c r="D33" t="n">
-        <v>5406111.365570804</v>
+        <v>2981331.970522768</v>
       </c>
       <c r="E33" t="n">
-        <v>5807494.473848926</v>
+        <v>2839370.661928955</v>
       </c>
       <c r="F33" t="n">
-        <v>4828413.98119893</v>
+        <v>3264891.342343508</v>
       </c>
       <c r="G33" t="n">
-        <v>5115441.904924481</v>
+        <v>3439145.655455221</v>
       </c>
       <c r="H33" t="n">
-        <v>4515605.427242532</v>
+        <v>3460239.451132973</v>
       </c>
       <c r="I33" t="n">
-        <v>5538728.121124763</v>
+        <v>3576451.499146266</v>
       </c>
       <c r="J33" t="n">
-        <v>5249386.933940645</v>
+        <v>3372233.121609471</v>
       </c>
       <c r="K33" t="n">
-        <v>5432832.877499952</v>
+        <v>3221982.163077853</v>
       </c>
       <c r="L33" t="n">
-        <v>6139875.450672733</v>
+        <v>3597776.25979865</v>
       </c>
       <c r="M33" t="n">
-        <v>6030457.656028365</v>
+        <v>3437499.66798362</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11713129.38062948</v>
+        <v>2469032.02698777</v>
       </c>
       <c r="C34" t="n">
-        <v>10477140.42130704</v>
+        <v>2742092.553689359</v>
       </c>
       <c r="D34" t="n">
-        <v>11042541.88485918</v>
+        <v>2724455.000974204</v>
       </c>
       <c r="E34" t="n">
-        <v>12484481.76901807</v>
+        <v>2953040.62490049</v>
       </c>
       <c r="F34" t="n">
-        <v>11781060.84568253</v>
+        <v>3082584.408115854</v>
       </c>
       <c r="G34" t="n">
-        <v>11984507.85740197</v>
+        <v>2941084.614254758</v>
       </c>
       <c r="H34" t="n">
-        <v>12470856.40691505</v>
+        <v>3381552.248422988</v>
       </c>
       <c r="I34" t="n">
-        <v>11379920.89709782</v>
+        <v>3261273.079951257</v>
       </c>
       <c r="J34" t="n">
-        <v>13973795.90736363</v>
+        <v>3643318.029712573</v>
       </c>
       <c r="K34" t="n">
-        <v>13552699.08959882</v>
+        <v>3084112.435505019</v>
       </c>
       <c r="L34" t="n">
-        <v>14642924.75401502</v>
+        <v>3353795.743418956</v>
       </c>
       <c r="M34" t="n">
-        <v>14810332.8800411</v>
+        <v>2873264.47810227</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5558851.327555567</v>
+        <v>1301699.854867397</v>
       </c>
       <c r="C35" t="n">
-        <v>6405767.154407911</v>
+        <v>1647437.440390054</v>
       </c>
       <c r="D35" t="n">
-        <v>5935937.387112048</v>
+        <v>1438631.150709688</v>
       </c>
       <c r="E35" t="n">
-        <v>6282815.046302703</v>
+        <v>1402542.556336946</v>
       </c>
       <c r="F35" t="n">
-        <v>6131349.595502842</v>
+        <v>1332905.094302316</v>
       </c>
       <c r="G35" t="n">
-        <v>6455374.574404676</v>
+        <v>1695693.901915127</v>
       </c>
       <c r="H35" t="n">
-        <v>6688830.99897672</v>
+        <v>1578518.120428332</v>
       </c>
       <c r="I35" t="n">
-        <v>7136790.583278065</v>
+        <v>1840412.621851627</v>
       </c>
       <c r="J35" t="n">
-        <v>6899103.294748632</v>
+        <v>1903584.64600483</v>
       </c>
       <c r="K35" t="n">
-        <v>7537687.992350327</v>
+        <v>1594958.927176806</v>
       </c>
       <c r="L35" t="n">
-        <v>7670111.817924255</v>
+        <v>1806015.515702779</v>
       </c>
       <c r="M35" t="n">
-        <v>7909957.595783474</v>
+        <v>1442385.197950636</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3379465.996117929</v>
+        <v>1185105.542811347</v>
       </c>
       <c r="C36" t="n">
-        <v>3957550.360984333</v>
+        <v>1040213.780464749</v>
       </c>
       <c r="D36" t="n">
-        <v>3812624.012014322</v>
+        <v>970931.662963234</v>
       </c>
       <c r="E36" t="n">
-        <v>3615296.313184749</v>
+        <v>859429.0453585429</v>
       </c>
       <c r="F36" t="n">
-        <v>4496261.807359613</v>
+        <v>1024605.87857948</v>
       </c>
       <c r="G36" t="n">
-        <v>4019780.80093302</v>
+        <v>902392.1480039149</v>
       </c>
       <c r="H36" t="n">
-        <v>3519831.445895536</v>
+        <v>569506.1534969626</v>
       </c>
       <c r="I36" t="n">
-        <v>3540522.997270851</v>
+        <v>508594.6472559139</v>
       </c>
       <c r="J36" t="n">
-        <v>4089279.077044285</v>
+        <v>714047.5879802778</v>
       </c>
       <c r="K36" t="n">
-        <v>3758874.819710902</v>
+        <v>227508.7135964446</v>
       </c>
       <c r="L36" t="n">
-        <v>4072831.279815161</v>
+        <v>214162.5501627617</v>
       </c>
       <c r="M36" t="n">
-        <v>4155484.234116867</v>
+        <v>281047.2743279438</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3522573.349511146</v>
+        <v>3048244.780149253</v>
       </c>
       <c r="C37" t="n">
-        <v>5132741.536441253</v>
+        <v>4236160.425904973</v>
       </c>
       <c r="D37" t="n">
-        <v>6622807.789365975</v>
+        <v>3669332.120296446</v>
       </c>
       <c r="E37" t="n">
-        <v>4222831.342549169</v>
+        <v>3236186.007189108</v>
       </c>
       <c r="F37" t="n">
-        <v>3796332.474877642</v>
+        <v>3739587.645487734</v>
       </c>
       <c r="G37" t="n">
-        <v>4988632.167259814</v>
+        <v>4328026.109175282</v>
       </c>
       <c r="H37" t="n">
-        <v>5896878.9742835</v>
+        <v>4586317.794363418</v>
       </c>
       <c r="I37" t="n">
-        <v>7420880.574990443</v>
+        <v>4027867.442147705</v>
       </c>
       <c r="J37" t="n">
-        <v>5158549.217164472</v>
+        <v>4725868.134002817</v>
       </c>
       <c r="K37" t="n">
-        <v>7089048.937822032</v>
+        <v>4240230.991879205</v>
       </c>
       <c r="L37" t="n">
-        <v>5970470.229234202</v>
+        <v>3579912.556865905</v>
       </c>
       <c r="M37" t="n">
-        <v>6320627.798965238</v>
+        <v>3263298.445060882</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1156090.888690388</v>
+        <v>4146538.320893159</v>
       </c>
       <c r="C38" t="n">
-        <v>2230271.573302355</v>
+        <v>3960662.992806726</v>
       </c>
       <c r="D38" t="n">
-        <v>2265523.71605848</v>
+        <v>4208736.608566958</v>
       </c>
       <c r="E38" t="n">
-        <v>552767.9676493341</v>
+        <v>4628229.160866451</v>
       </c>
       <c r="F38" t="n">
-        <v>891321.3149553491</v>
+        <v>4480491.151779578</v>
       </c>
       <c r="G38" t="n">
-        <v>1729252.256237863</v>
+        <v>4605702.592978518</v>
       </c>
       <c r="H38" t="n">
-        <v>641789.1180375156</v>
+        <v>4484183.972513689</v>
       </c>
       <c r="I38" t="n">
-        <v>83134.48588867113</v>
+        <v>5112816.04393232</v>
       </c>
       <c r="J38" t="n">
-        <v>529219.3293587908</v>
+        <v>5490506.808945273</v>
       </c>
       <c r="K38" t="n">
-        <v>1211594.275629196</v>
+        <v>4437129.228203773</v>
       </c>
       <c r="L38" t="n">
-        <v>1074964.773566266</v>
+        <v>5358214.879567707</v>
       </c>
       <c r="M38" t="n">
-        <v>-110621.432495189</v>
+        <v>4111458.944322469</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3916723.44554267</v>
+        <v>4379394.294788552</v>
       </c>
       <c r="C39" t="n">
-        <v>3552812.146890206</v>
+        <v>4852056.385675595</v>
       </c>
       <c r="D39" t="n">
-        <v>3906521.684644701</v>
+        <v>5065903.969303038</v>
       </c>
       <c r="E39" t="n">
-        <v>4145483.662935544</v>
+        <v>5249597.828104361</v>
       </c>
       <c r="F39" t="n">
-        <v>4416930.520040648</v>
+        <v>5311897.038243043</v>
       </c>
       <c r="G39" t="n">
-        <v>4625129.471726976</v>
+        <v>5304360.030156713</v>
       </c>
       <c r="H39" t="n">
-        <v>3901492.015641531</v>
+        <v>5333594.79271518</v>
       </c>
       <c r="I39" t="n">
-        <v>4000866.635290194</v>
+        <v>4925417.852657642</v>
       </c>
       <c r="J39" t="n">
-        <v>3513861.018678543</v>
+        <v>5889254.365661708</v>
       </c>
       <c r="K39" t="n">
-        <v>4498617.65853329</v>
+        <v>4490999.007636495</v>
       </c>
       <c r="L39" t="n">
-        <v>4787967.693953542</v>
+        <v>4595314.643017438</v>
       </c>
       <c r="M39" t="n">
-        <v>5402578.948342781</v>
+        <v>4081173.400017076</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10851504.06883926</v>
+        <v>4359928.599642511</v>
       </c>
       <c r="C40" t="n">
-        <v>12056249.90843336</v>
+        <v>4841499.611985755</v>
       </c>
       <c r="D40" t="n">
-        <v>12068419.15368656</v>
+        <v>4830975.547108661</v>
       </c>
       <c r="E40" t="n">
-        <v>13422861.09150566</v>
+        <v>4587524.480588221</v>
       </c>
       <c r="F40" t="n">
-        <v>11695403.79984522</v>
+        <v>4791831.171643008</v>
       </c>
       <c r="G40" t="n">
-        <v>13770645.04951487</v>
+        <v>4395772.875934904</v>
       </c>
       <c r="H40" t="n">
-        <v>12641346.01254754</v>
+        <v>4598293.143661265</v>
       </c>
       <c r="I40" t="n">
-        <v>12323604.06759661</v>
+        <v>4293106.638383972</v>
       </c>
       <c r="J40" t="n">
-        <v>15057389.68479456</v>
+        <v>4600279.159803336</v>
       </c>
       <c r="K40" t="n">
-        <v>15160677.47695398</v>
+        <v>4049503.766483175</v>
       </c>
       <c r="L40" t="n">
-        <v>15622136.19151638</v>
+        <v>4324782.876300975</v>
       </c>
       <c r="M40" t="n">
-        <v>15085468.60551141</v>
+        <v>3276946.698542429</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3496903.076963532</v>
+        <v>2633137.877961029</v>
       </c>
       <c r="C41" t="n">
-        <v>5725145.408697802</v>
+        <v>3092019.40219311</v>
       </c>
       <c r="D41" t="n">
-        <v>5340821.52361057</v>
+        <v>3342983.710369551</v>
       </c>
       <c r="E41" t="n">
-        <v>5754928.798620024</v>
+        <v>2918790.300152403</v>
       </c>
       <c r="F41" t="n">
-        <v>4893542.218021359</v>
+        <v>3256581.704310037</v>
       </c>
       <c r="G41" t="n">
-        <v>6403262.726043181</v>
+        <v>3457330.407020757</v>
       </c>
       <c r="H41" t="n">
-        <v>6688287.197014415</v>
+        <v>3331214.409716468</v>
       </c>
       <c r="I41" t="n">
-        <v>12242213.51050565</v>
+        <v>3739070.217185357</v>
       </c>
       <c r="J41" t="n">
-        <v>9502065.460010018</v>
+        <v>3801558.057321994</v>
       </c>
       <c r="K41" t="n">
-        <v>6509801.976328797</v>
+        <v>3195671.951976996</v>
       </c>
       <c r="L41" t="n">
-        <v>7124973.560255243</v>
+        <v>3926676.647857768</v>
       </c>
       <c r="M41" t="n">
-        <v>6339515.719418157</v>
+        <v>2996861.127311237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8322071.314984341</v>
+        <v>3612632.357722491</v>
       </c>
       <c r="C42" t="n">
-        <v>10574939.26979356</v>
+        <v>3996215.206540738</v>
       </c>
       <c r="D42" t="n">
-        <v>11259281.72557641</v>
+        <v>4036318.16033909</v>
       </c>
       <c r="E42" t="n">
-        <v>11963247.66628961</v>
+        <v>4091731.202152578</v>
       </c>
       <c r="F42" t="n">
-        <v>9481339.845245533</v>
+        <v>4195167.825343812</v>
       </c>
       <c r="G42" t="n">
-        <v>10765254.82401928</v>
+        <v>4319570.296774273</v>
       </c>
       <c r="H42" t="n">
-        <v>11158644.80799951</v>
+        <v>4733254.137111381</v>
       </c>
       <c r="I42" t="n">
-        <v>9836862.782149222</v>
+        <v>5055607.052178412</v>
       </c>
       <c r="J42" t="n">
-        <v>11690893.29878627</v>
+        <v>5024159.8159848</v>
       </c>
       <c r="K42" t="n">
-        <v>11220389.59432617</v>
+        <v>4697478.43171282</v>
       </c>
       <c r="L42" t="n">
-        <v>12831485.17026867</v>
+        <v>4563162.89192994</v>
       </c>
       <c r="M42" t="n">
-        <v>14729597.8664394</v>
+        <v>3489791.448453672</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3227189.465120502</v>
+        <v>2341572.15612101</v>
       </c>
       <c r="C43" t="n">
-        <v>3971627.082505161</v>
+        <v>3201262.616108663</v>
       </c>
       <c r="D43" t="n">
-        <v>5383483.638792062</v>
+        <v>2942629.847698533</v>
       </c>
       <c r="E43" t="n">
-        <v>4629942.927841059</v>
+        <v>2977160.839658184</v>
       </c>
       <c r="F43" t="n">
-        <v>3189160.665530652</v>
+        <v>3134780.11783693</v>
       </c>
       <c r="G43" t="n">
-        <v>3706224.294791267</v>
+        <v>3179602.186577327</v>
       </c>
       <c r="H43" t="n">
-        <v>4638079.830106869</v>
+        <v>3200220.284291507</v>
       </c>
       <c r="I43" t="n">
-        <v>4819342.727126046</v>
+        <v>3194720.661441147</v>
       </c>
       <c r="J43" t="n">
-        <v>5541077.875301279</v>
+        <v>3296791.582298616</v>
       </c>
       <c r="K43" t="n">
-        <v>5412829.556153266</v>
+        <v>3192041.261230702</v>
       </c>
       <c r="L43" t="n">
-        <v>5163804.399180681</v>
+        <v>3564625.74222928</v>
       </c>
       <c r="M43" t="n">
-        <v>5588278.842954985</v>
+        <v>2544231.985304879</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11106251.22610045</v>
+        <v>5106760.712734667</v>
       </c>
       <c r="C44" t="n">
-        <v>13217654.94926108</v>
+        <v>5822314.36853427</v>
       </c>
       <c r="D44" t="n">
-        <v>13227891.28567563</v>
+        <v>5275106.241439804</v>
       </c>
       <c r="E44" t="n">
-        <v>12111978.08644366</v>
+        <v>5056452.351103512</v>
       </c>
       <c r="F44" t="n">
-        <v>13150157.94428086</v>
+        <v>5602248.183678485</v>
       </c>
       <c r="G44" t="n">
-        <v>12387923.4787472</v>
+        <v>6285894.76495298</v>
       </c>
       <c r="H44" t="n">
-        <v>11942264.79204856</v>
+        <v>5691982.589848313</v>
       </c>
       <c r="I44" t="n">
-        <v>13796665.38491942</v>
+        <v>6729613.370558664</v>
       </c>
       <c r="J44" t="n">
-        <v>13863496.32993822</v>
+        <v>6159827.898370848</v>
       </c>
       <c r="K44" t="n">
-        <v>14055409.96282618</v>
+        <v>5991370.159688902</v>
       </c>
       <c r="L44" t="n">
-        <v>13854171.33780911</v>
+        <v>6724403.134568178</v>
       </c>
       <c r="M44" t="n">
-        <v>15728175.68290907</v>
+        <v>5026025.601206672</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3849065.664438548</v>
+        <v>2637245.547530545</v>
       </c>
       <c r="C45" t="n">
-        <v>4542446.456168677</v>
+        <v>2974170.864769035</v>
       </c>
       <c r="D45" t="n">
-        <v>4907325.787412118</v>
+        <v>3065773.404377801</v>
       </c>
       <c r="E45" t="n">
-        <v>4304651.888342067</v>
+        <v>2868048.157482529</v>
       </c>
       <c r="F45" t="n">
-        <v>3902679.237792223</v>
+        <v>2863725.875097921</v>
       </c>
       <c r="G45" t="n">
-        <v>3785127.195168332</v>
+        <v>3193270.837884274</v>
       </c>
       <c r="H45" t="n">
-        <v>5091703.458849817</v>
+        <v>3143769.527477847</v>
       </c>
       <c r="I45" t="n">
-        <v>4937429.338799792</v>
+        <v>3570422.435548991</v>
       </c>
       <c r="J45" t="n">
-        <v>4366421.438479817</v>
+        <v>3141280.832297238</v>
       </c>
       <c r="K45" t="n">
-        <v>4425237.050689404</v>
+        <v>2878304.438620267</v>
       </c>
       <c r="L45" t="n">
-        <v>4508568.390357205</v>
+        <v>3349982.037878955</v>
       </c>
       <c r="M45" t="n">
-        <v>5265171.521376539</v>
+        <v>2661141.845046655</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9645833.095217086</v>
+        <v>2062590.395691723</v>
       </c>
       <c r="C46" t="n">
-        <v>12733492.83033</v>
+        <v>2682620.230742174</v>
       </c>
       <c r="D46" t="n">
-        <v>12003751.46598104</v>
+        <v>2069149.293558726</v>
       </c>
       <c r="E46" t="n">
-        <v>12888875.48169769</v>
+        <v>2279816.372509541</v>
       </c>
       <c r="F46" t="n">
-        <v>9754382.93480877</v>
+        <v>2146433.714520548</v>
       </c>
       <c r="G46" t="n">
-        <v>12365526.92971135</v>
+        <v>2203740.305457659</v>
       </c>
       <c r="H46" t="n">
-        <v>14899707.92849775</v>
+        <v>2147663.149467241</v>
       </c>
       <c r="I46" t="n">
-        <v>13222012.11276512</v>
+        <v>2881627.014533129</v>
       </c>
       <c r="J46" t="n">
-        <v>11409526.54694634</v>
+        <v>2643910.843745303</v>
       </c>
       <c r="K46" t="n">
-        <v>11037851.12338423</v>
+        <v>1837408.44205677</v>
       </c>
       <c r="L46" t="n">
-        <v>12367578.13532671</v>
+        <v>2224606.799343447</v>
       </c>
       <c r="M46" t="n">
-        <v>15095927.61664107</v>
+        <v>1775764.409876666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2320714.343827213</v>
+        <v>1938105.493397442</v>
       </c>
       <c r="C47" t="n">
-        <v>2326335.002348526</v>
+        <v>2091972.110954976</v>
       </c>
       <c r="D47" t="n">
-        <v>2529573.543957925</v>
+        <v>2318022.465417118</v>
       </c>
       <c r="E47" t="n">
-        <v>2646426.403874439</v>
+        <v>2393961.247975797</v>
       </c>
       <c r="F47" t="n">
-        <v>2666483.192602798</v>
+        <v>2199919.854079202</v>
       </c>
       <c r="G47" t="n">
-        <v>2803901.997482392</v>
+        <v>2288034.078841262</v>
       </c>
       <c r="H47" t="n">
-        <v>2838714.758485415</v>
+        <v>2257812.83454971</v>
       </c>
       <c r="I47" t="n">
-        <v>2640724.871759804</v>
+        <v>2355442.036582169</v>
       </c>
       <c r="J47" t="n">
-        <v>2716040.302943175</v>
+        <v>2511269.469843291</v>
       </c>
       <c r="K47" t="n">
-        <v>2752182.114298591</v>
+        <v>2362000.130824545</v>
       </c>
       <c r="L47" t="n">
-        <v>2890328.355271181</v>
+        <v>2395774.063653952</v>
       </c>
       <c r="M47" t="n">
-        <v>2825068.748826281</v>
+        <v>2346506.868108388</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>342079.5019933647</v>
+        <v>4960660.369371817</v>
       </c>
       <c r="C48" t="n">
-        <v>343210.5704618882</v>
+        <v>5132959.741571905</v>
       </c>
       <c r="D48" t="n">
-        <v>333827.5742103732</v>
+        <v>5361184.691408264</v>
       </c>
       <c r="E48" t="n">
-        <v>438404.8682894467</v>
+        <v>5296272.916092709</v>
       </c>
       <c r="F48" t="n">
-        <v>345102.3223621676</v>
+        <v>5211795.710695413</v>
       </c>
       <c r="G48" t="n">
-        <v>306527.4722221979</v>
+        <v>5390133.502499756</v>
       </c>
       <c r="H48" t="n">
-        <v>426348.8602366694</v>
+        <v>5232355.476003258</v>
       </c>
       <c r="I48" t="n">
-        <v>390477.7038379367</v>
+        <v>5748150.700805036</v>
       </c>
       <c r="J48" t="n">
-        <v>467231.7083572943</v>
+        <v>6242409.366652282</v>
       </c>
       <c r="K48" t="n">
-        <v>357344.0305340537</v>
+        <v>5545957.623033647</v>
       </c>
       <c r="L48" t="n">
-        <v>391850.3011440636</v>
+        <v>6012387.254770833</v>
       </c>
       <c r="M48" t="n">
-        <v>657785.5631558087</v>
+        <v>5351075.469713703</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>587774.7787004852</v>
+        <v>974499.3786511851</v>
       </c>
       <c r="C49" t="n">
-        <v>795107.8879189959</v>
+        <v>1164757.270478402</v>
       </c>
       <c r="D49" t="n">
-        <v>926335.7600573109</v>
+        <v>1188909.752272283</v>
       </c>
       <c r="E49" t="n">
-        <v>801340.1235993978</v>
+        <v>1025431.191157034</v>
       </c>
       <c r="F49" t="n">
-        <v>692241.9989385753</v>
+        <v>1026752.087114956</v>
       </c>
       <c r="G49" t="n">
-        <v>718401.3806456508</v>
+        <v>1068320.760956789</v>
       </c>
       <c r="H49" t="n">
-        <v>650055.2578537965</v>
+        <v>1057159.120682811</v>
       </c>
       <c r="I49" t="n">
-        <v>662921.1466363578</v>
+        <v>1263992.578631681</v>
       </c>
       <c r="J49" t="n">
-        <v>807639.5359032901</v>
+        <v>1144686.965914024</v>
       </c>
       <c r="K49" t="n">
-        <v>936149.179177998</v>
+        <v>1043247.010241763</v>
       </c>
       <c r="L49" t="n">
-        <v>960246.8259577415</v>
+        <v>1166321.774916902</v>
       </c>
       <c r="M49" t="n">
-        <v>1147518.483713263</v>
+        <v>1019802.035940307</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1586902.356254245</v>
+        <v>2760429.385870153</v>
       </c>
       <c r="C50" t="n">
-        <v>1683002.459866797</v>
+        <v>2822719.733775885</v>
       </c>
       <c r="D50" t="n">
-        <v>1893853.486517753</v>
+        <v>2951049.024828359</v>
       </c>
       <c r="E50" t="n">
-        <v>2006369.239034563</v>
+        <v>2897295.596765799</v>
       </c>
       <c r="F50" t="n">
-        <v>1897540.172111818</v>
+        <v>3159552.785786539</v>
       </c>
       <c r="G50" t="n">
-        <v>1984304.554435776</v>
+        <v>2937876.271889838</v>
       </c>
       <c r="H50" t="n">
-        <v>2035779.844473308</v>
+        <v>3014814.25928164</v>
       </c>
       <c r="I50" t="n">
-        <v>2043601.096661993</v>
+        <v>2956125.44691594</v>
       </c>
       <c r="J50" t="n">
-        <v>2184635.862716982</v>
+        <v>2867319.547570677</v>
       </c>
       <c r="K50" t="n">
-        <v>2228320.201745402</v>
+        <v>2775015.947140595</v>
       </c>
       <c r="L50" t="n">
-        <v>2061704.374043594</v>
+        <v>2840738.271854502</v>
       </c>
       <c r="M50" t="n">
-        <v>2298689.008122783</v>
+        <v>2480959.080154592</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2904786.786711487</v>
+        <v>3241813.974013909</v>
       </c>
       <c r="C51" t="n">
-        <v>2838069.912387046</v>
+        <v>3301490.654089006</v>
       </c>
       <c r="D51" t="n">
-        <v>3031154.574474162</v>
+        <v>3622641.842849701</v>
       </c>
       <c r="E51" t="n">
-        <v>3111899.659561283</v>
+        <v>3590361.707918937</v>
       </c>
       <c r="F51" t="n">
-        <v>2969938.120021675</v>
+        <v>3607648.559862645</v>
       </c>
       <c r="G51" t="n">
-        <v>3395459.173905393</v>
+        <v>3616637.77567504</v>
       </c>
       <c r="H51" t="n">
-        <v>3569713.512555969</v>
+        <v>3748384.258743488</v>
       </c>
       <c r="I51" t="n">
-        <v>3590807.814417494</v>
+        <v>4030805.815614198</v>
       </c>
       <c r="J51" t="n">
-        <v>3707019.687226681</v>
+        <v>4169481.540752783</v>
       </c>
       <c r="K51" t="n">
-        <v>3502801.673996679</v>
+        <v>3947949.089170719</v>
       </c>
       <c r="L51" t="n">
-        <v>3352553.619341091</v>
+        <v>3875924.669817623</v>
       </c>
       <c r="M51" t="n">
-        <v>3728352.01905526</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2596293.605543197</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2496339.738919716</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2769400.306899774</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2751762.796245123</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2980348.463691696</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3109892.289967874</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2968392.54018996</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3408860.220023408</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3288581.100975987</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3670626.095191379</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3111420.550109814</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3381103.905909609</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1507264.435290475</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1597427.426532697</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1943159.520089625</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1734348.859978291</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1698259.775167626</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1628624.370693896</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1991413.826880621</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1874237.565539987</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2136132.67172403</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2199304.997875272</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1890686.520917998</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2101753.963294247</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>853857.5205808642</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1067745.909640671</v>
-      </c>
-      <c r="D54" t="n">
-        <v>863958.0236473251</v>
-      </c>
-      <c r="E54" t="n">
-        <v>737273.5978012973</v>
-      </c>
-      <c r="F54" t="n">
-        <v>569864.7304527174</v>
-      </c>
-      <c r="G54" t="n">
-        <v>680621.4234355644</v>
-      </c>
-      <c r="H54" t="n">
-        <v>505476.7179548163</v>
-      </c>
-      <c r="I54" t="n">
-        <v>121154.217665226</v>
-      </c>
-      <c r="J54" t="n">
-        <v>10298.78405552759</v>
-      </c>
-      <c r="K54" t="n">
-        <v>167300.6264366555</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-366197.4131406299</v>
-      </c>
-      <c r="M54" t="n">
-        <v>-425015.3837178815</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2954813.85829498</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3087250.713277885</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4275163.276033435</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3708334.712034582</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3275190.581024146</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3778591.371736184</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4367027.563151587</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4625319.123078749</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4066869.548598994</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4764870.95951406</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4279234.521781467</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3618916.522424298</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3606251.81453621</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4144717.658987671</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3958842.907778395</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4206917.080172349</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4626410.168639706</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4478672.675269537</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4603884.612118999</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4482366.466892699</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5110998.993275417</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5488690.193097184</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4435313.025604931</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5356399.071142144</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4341192.960061527</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4612216.783123828</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5205337.903745215</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5533614.201884753</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5825707.576828753</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5990376.250244546</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6079177.455322343</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6198713.548099712</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5874809.531855123</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6916887.212482053</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5590840.307000471</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5761334.893152229</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4593855.06691249</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4871276.932748327</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5483505.917794573</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5601207.728948704</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5483547.42531265</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5811212.221052524</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5536078.379502401</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5857088.647530086</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5667959.284933145</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6088757.276211828</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5649175.126226839</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6033215.337008554</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2873543.315020395</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2703719.168298389</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3162601.818164145</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3413567.218216795</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2989374.866174542</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3327167.295912679</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3527916.991044448</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3401801.953038152</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3809658.686787997</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3872147.419506444</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3266262.173780216</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3997267.69613895</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3308652.896723196</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3637312.636431011</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4020896.677346379</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4061000.782905618</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4116414.937026375</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4219852.633836995</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4344256.139468778</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4757940.972857203</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5080294.842438287</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5048848.521130468</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4722168.011844352</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4587853.307493059</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2492813.025049772</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2316663.716027388</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3176354.663961044</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2917722.364171794</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2952253.805271642</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3109873.513407588</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3154695.992983934</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3175314.482275772</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3169815.23174221</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3271886.505846958</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3167136.518511912</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3539721.314274046</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4844284.852076523</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5217587.868629937</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5933142.127312819</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5385934.591629694</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5167281.281219928</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5713077.68235795</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6396724.82071038</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5802813.191078531</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6840444.505879213</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6270659.556285441</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6102202.328637414</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6835235.803118818</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2408501.618604267</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2693273.691431472</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3030198.756646859</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3121801.057921963</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2924075.586352163</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2919753.092969188</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3249297.858541466</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3199796.364631791</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3626449.102885277</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3197307.343569993</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2934330.807481349</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3406008.278093991</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1853715.945704332</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2125356.493570125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2745386.802016631</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2131916.3243616</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2342583.852954003</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2209201.634482657</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2266508.653331622</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2210431.914049977</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2944396.186714034</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2706680.408213521</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1900178.389260677</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2287377.118704527</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2393935.484196849</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2451004.491148357</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2604868.319887586</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2830918.810984581</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2906857.749766985</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2712816.425275695</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2800930.6903953</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2770709.509400052</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2868338.754758601</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3024166.301920093</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2874897.059914436</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2908691.066922631</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5079909.966619455</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5373115.039355638</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5545416.432748078</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5773645.855793653</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5708737.744870512</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5624261.280728087</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5802601.606100676</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5644826.887962333</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6160625.126214807</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6654889.901330413</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5958443.910172502</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6424878.753295305</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>860506.2605878825</v>
-      </c>
-      <c r="C67" t="n">
-        <v>991590.708888104</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1181844.590918374</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1205994.252679185</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1042514.972874723</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1043835.501251094</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1085403.952414806</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1074243.790597059</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1281077.276535499</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1161769.883180568</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1060331.362120645</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1183408.413169248</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2746689.135611209</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2816395.97752458</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2911386.852840204</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3071421.048336006</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3048377.043402876</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3340348.372856908</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3147390.853311795</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3252052.683066103</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3220092.551264333</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3157020.055894636</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3089454.391563742</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3178918.958757948</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2647077.227768701</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2815200.801968032</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2874867.949579068</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3196019.448496457</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3163739.323042473</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3181026.180232151</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3190013.233029971</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3321760.195160877</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3604185.146120821</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3742858.608904033</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3521326.138294536</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3449289.128940693</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>46753472.43670982</v>
-      </c>
-      <c r="C70" t="n">
-        <v>51955885.13100843</v>
-      </c>
-      <c r="D70" t="n">
-        <v>56720783.09345505</v>
-      </c>
-      <c r="E70" t="n">
-        <v>62207592.26216877</v>
-      </c>
-      <c r="F70" t="n">
-        <v>67304894.59980951</v>
-      </c>
-      <c r="G70" t="n">
-        <v>73051848.05916393</v>
-      </c>
-      <c r="H70" t="n">
-        <v>78606070.07843226</v>
-      </c>
-      <c r="I70" t="n">
-        <v>85041828.93747929</v>
-      </c>
-      <c r="J70" t="n">
-        <v>90994043.63129519</v>
-      </c>
-      <c r="K70" t="n">
-        <v>98075747.59800626</v>
-      </c>
-      <c r="L70" t="n">
-        <v>101333360.7675307</v>
-      </c>
-      <c r="M70" t="n">
-        <v>109011710.1569099</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>23293782.5254475</v>
-      </c>
-      <c r="C71" t="n">
-        <v>34004289.30692519</v>
-      </c>
-      <c r="D71" t="n">
-        <v>35657241.9194897</v>
-      </c>
-      <c r="E71" t="n">
-        <v>37520271.92251376</v>
-      </c>
-      <c r="F71" t="n">
-        <v>40116757.40298858</v>
-      </c>
-      <c r="G71" t="n">
-        <v>42331469.20738318</v>
-      </c>
-      <c r="H71" t="n">
-        <v>43657756.08864743</v>
-      </c>
-      <c r="I71" t="n">
-        <v>45899402.41395022</v>
-      </c>
-      <c r="J71" t="n">
-        <v>47841600.68370523</v>
-      </c>
-      <c r="K71" t="n">
-        <v>49881254.80764543</v>
-      </c>
-      <c r="L71" t="n">
-        <v>53816977.7202637</v>
-      </c>
-      <c r="M71" t="n">
-        <v>69126958.81758527</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>45629.83981509344</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2113042.255998212</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2526691.207549802</v>
-      </c>
-      <c r="E72" t="n">
-        <v>984871.9132039645</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4257249.473119013</v>
-      </c>
-      <c r="G72" t="n">
-        <v>165296.9744720815</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1259877.07291546</v>
-      </c>
-      <c r="I72" t="n">
-        <v>473790.1085929848</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1396608.412016224</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-448028.2680824553</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1685133.205518326</v>
-      </c>
-      <c r="M72" t="n">
-        <v>474402.8878212989</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11577683.1827072</v>
-      </c>
-      <c r="C73" t="n">
-        <v>13342626.1079107</v>
-      </c>
-      <c r="D73" t="n">
-        <v>14611600.01106987</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13757244.83456037</v>
-      </c>
-      <c r="F73" t="n">
-        <v>14523685.53189771</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13512312.40213529</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13836063.34028121</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13818335.13347647</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13624717.39591728</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14422194.21259905</v>
-      </c>
-      <c r="L73" t="n">
-        <v>13388675.3788451</v>
-      </c>
-      <c r="M73" t="n">
-        <v>15580616.6070488</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>13159337.65570526</v>
-      </c>
-      <c r="C74" t="n">
-        <v>19124570.71738135</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20970780.42667915</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20502138.4250304</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18988389.59400548</v>
-      </c>
-      <c r="G74" t="n">
-        <v>19523963.112254</v>
-      </c>
-      <c r="H74" t="n">
-        <v>19060022.72767723</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17453562.49965015</v>
-      </c>
-      <c r="J74" t="n">
-        <v>18576019.89293162</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19188699.66900617</v>
-      </c>
-      <c r="L74" t="n">
-        <v>21091696.95791024</v>
-      </c>
-      <c r="M74" t="n">
-        <v>24709259.65657143</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>25613010.31780275</v>
-      </c>
-      <c r="C75" t="n">
-        <v>27322456.22253595</v>
-      </c>
-      <c r="D75" t="n">
-        <v>29987549.09690539</v>
-      </c>
-      <c r="E75" t="n">
-        <v>31241062.93593265</v>
-      </c>
-      <c r="F75" t="n">
-        <v>32117962.73846769</v>
-      </c>
-      <c r="G75" t="n">
-        <v>34744386.08286951</v>
-      </c>
-      <c r="H75" t="n">
-        <v>32686056.82064754</v>
-      </c>
-      <c r="I75" t="n">
-        <v>34206852.10368976</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30892961.41353065</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34582065.25120814</v>
-      </c>
-      <c r="L75" t="n">
-        <v>34834155.76174947</v>
-      </c>
-      <c r="M75" t="n">
-        <v>41096397.59921218</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19630433.43690066</v>
-      </c>
-      <c r="C76" t="n">
-        <v>20253415.77234837</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21808760.21998491</v>
-      </c>
-      <c r="E76" t="n">
-        <v>23527090.92936184</v>
-      </c>
-      <c r="F76" t="n">
-        <v>24817983.74069522</v>
-      </c>
-      <c r="G76" t="n">
-        <v>25358568.06483451</v>
-      </c>
-      <c r="H76" t="n">
-        <v>28215374.71192131</v>
-      </c>
-      <c r="I76" t="n">
-        <v>27835548.0901827</v>
-      </c>
-      <c r="J76" t="n">
-        <v>26949431.91665843</v>
-      </c>
-      <c r="K76" t="n">
-        <v>27553924.37525714</v>
-      </c>
-      <c r="L76" t="n">
-        <v>28494310.93302479</v>
-      </c>
-      <c r="M76" t="n">
-        <v>29358294.75302132</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>22243107.40818037</v>
-      </c>
-      <c r="C77" t="n">
-        <v>23491555.10073911</v>
-      </c>
-      <c r="D77" t="n">
-        <v>24063762.31425051</v>
-      </c>
-      <c r="E77" t="n">
-        <v>25062665.23873625</v>
-      </c>
-      <c r="F77" t="n">
-        <v>25669178.85965555</v>
-      </c>
-      <c r="G77" t="n">
-        <v>27572950.38096137</v>
-      </c>
-      <c r="H77" t="n">
-        <v>28234243.14817116</v>
-      </c>
-      <c r="I77" t="n">
-        <v>28658092.2038934</v>
-      </c>
-      <c r="J77" t="n">
-        <v>29661887.50551881</v>
-      </c>
-      <c r="K77" t="n">
-        <v>32026684.07538797</v>
-      </c>
-      <c r="L77" t="n">
-        <v>32688213.93426013</v>
-      </c>
-      <c r="M77" t="n">
-        <v>33412685.95706859</v>
+        <v>3839888.033322936</v>
       </c>
     </row>
   </sheetData>
